--- a/Key_Manager.xlsx
+++ b/Key_Manager.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Manager" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Manager!$L$7:$L$11</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Stt</t>
   </si>
@@ -31,9 +34,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Số ngày</t>
-  </si>
-  <si>
     <t>Ngày hết hạn</t>
   </si>
   <si>
@@ -64,7 +64,30 @@
     <t>0932752239</t>
   </si>
   <si>
-    <t>Số ngày đã sử dụng</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0963323027</t>
+  </si>
+  <si>
+    <t>huuphuoc45@gmail.com</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>Gói mua
+(ngày)</t>
+  </si>
+  <si>
+    <t>Số ngày còn lại</t>
+  </si>
+  <si>
+    <t>Số ngày 
+đã mua</t>
+  </si>
+  <si>
+    <t>Lọc</t>
   </si>
 </sst>
 </file>
@@ -138,31 +161,184 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -462,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,160 +652,258 @@
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="str">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="str">
         <f>+"./EDragonLicenseAdmin.exe -lg -id "&amp; C$7 &amp;" -name "&amp; D$7 &amp;" -phone " &amp;E$7 &amp;" -email "&amp; F$7&amp;" -day "&amp; G$7</f>
-        <v xml:space="preserve">./EDragonLicenseAdmin.exe -lg -id  -name  -phone  -email  -day </v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+        <v>./EDragonLicenseAdmin.exe -lg -id 8f5fbfa10b30b8afc56c45ee036aadd214c85091 -name Edragon2 -phone 0932752239 -email edragon.trading@gmail.com -day x</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
+    </row>
+    <row r="7" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="13">
+        <f>1+B9</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="9">
+        <f t="shared" ref="J8:J9" si="0">+H8+G8+I8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f ca="1">+J8-TODAY()</f>
+        <v>-44555</v>
+      </c>
+      <c r="L8" s="7">
+        <f ca="1">+ IF(K8&lt;=0,2,IF(K8&lt;7, 1, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="13">
+        <f>1+B10</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4">
+        <v>180</v>
+      </c>
+      <c r="H9" s="9">
+        <v>44555</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>44735</v>
+      </c>
+      <c r="K9" s="7">
+        <f ca="1">+J9-TODAY()</f>
+        <v>180</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" ref="L9:L11" ca="1" si="1">+ IF(K9&lt;=0,2,IF(K9&lt;7, 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4">
+        <v>90</v>
+      </c>
+      <c r="H10" s="9">
+        <v>44555</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <f>+H10+G10+I10</f>
+        <v>44645</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" ref="K10:K11" ca="1" si="2">+J10-TODAY()</f>
+        <v>90</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <f>1+B9</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8">
-        <v>180</v>
-      </c>
-      <c r="H8" s="4">
-        <v>44555</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4">
+        <v>90</v>
+      </c>
+      <c r="H11" s="9">
+        <v>44553</v>
+      </c>
+      <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <f t="shared" ref="J8" si="0">+H8+G8+I8</f>
-        <v>44735</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8">
-        <v>90</v>
-      </c>
-      <c r="H9" s="4">
-        <v>44555</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="J11" s="9">
+        <f>+H11+G11+I11</f>
+        <v>44643</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
-        <f>+H9+G9+I9</f>
-        <v>44645</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="M11" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="L7:L11"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="K8:K11">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L11">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E8:E9" numberStoredAsText="1"/>
+    <ignoredError sqref="E9:E11 E7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>